--- a/chatbot/static/results/result_datatitle.xlsx
+++ b/chatbot/static/results/result_datatitle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,234 +513,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11388-palace_c.jpg</t>
+          <t>24285-scenes6.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>"The Dutch painter Hans Vredeman de Vries, shortly before he died in 1604, published a book with engraved perspective inventions. This book, which was extremely important in transmitting the extensive Italian knowledge about perspective and architectural ornament to the north, influenced Dirck van Deelen. His painting ""Palace Courtyard with Figures"", painted in 1635, reveals the dominant style in architectural painting in which van Delen continued to his death"</t>
+          <t>This panel, together with five others in the same collection, originally formed the predella of an unidentified altarpiece.This panel represents the Baptism of Christ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Oil', 'panel']</t>
+          <t>['Tempera', 'octagonal', 'panel']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>['Square']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Landscape']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Dutch']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>a painting of a woman and a man in an open courtyard</t>
+          <t>a painting of person and person</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>delen dirck van</t>
+          <t>mariotto di nardo</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Palace Courtyard with Figures</t>
+          <t>Scenes from the Life of Christ (6)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>건축물이 있는 광장에서 여성과 남성이 있는 그림. 건축물을 중심으로한 정면과 측면이 잘 표현된 그림이다.</t>
+          <t>이 그림은 기독교 신학에서 예수의 세례를 묘사한 작품이다. 
+주요 소재 : 예수의 세례
+전반적인 분위기: 성스럽고 조용한 분위기</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>(48, 48, 32)</t>
+          <t>(28, 22, 22)</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.123</v>
+        <v>2.223</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20291-granite.jpg</t>
+          <t>37278-5naples.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>"The years between the defeat of Napoleon in 1815 and the revolutions of 1848, known as the Biedermeier era, were a time of relative peace, prosperity, and innovation in German-speaking Europe. The art of the period came to be characterized by what a critic of the day called ""rigorous simplicity."" In painting, emphasis was given to the objective recording of natural phenomena, and artists sought to achieve an enamel-like finish that masked individual brushstrokes. Landscape and portraiture grew in importance while history painting declined.Berlin was expanding rapidly, growing to fulfil its role as a major European capital. Imposing new public buildings by Schinkel and his disciples were being constructed. Painters like Eduard G&amp;#228;rtner and Johann Erdmann Hummel chose Berlin as their subject, carefully depicting the architectural and technological wonders, like the huge granite bowl that adorned the centre of the city"</t>
+          <t>The panel formed part of an unknown polyptych</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Tempera', 'wood']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['Vertical']</t>
+          <t>['Horizontal']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Landscape']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['German']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Romanticism', 'Realism']</t>
+          <t>['Medieval', 'Period']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>a painting of a fountain in a park</t>
+          <t>a painting of the person holding a book</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>hummel johann erdmann</t>
+          <t>simone martini</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Granite Basin in the Lustgarten</t>
+          <t>Blessing Christ</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>바닥에 놓인 거대한 흉금석 용이있는 공원에 그려진 그림입니다.</t>
+          <t>Christ가 권서하는 그림. 
+이 그림은 성경에서 예수를 묘사한 것으로, 성인 인물과 책이 그려져 있습니다.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>(143, 155, 186)</t>
+          <t>(131, 76, 66)</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.123</v>
+        <v>2.223</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>41979-farnese.jpg</t>
+          <t>19508-eccehomo.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>"In a treatise appearing in 1800, alongside the traditional categories of the ""heroic landscape"" and the ""pastoral landscape"", Valenciennes introduced the ""portrait landscape"". With that expression he designates the faithful reproduction of the landscape the artist has before his eyes, believing that such a practice could become a genre in its own right"</t>
+          <t>"Jesus stands between the governor of Judaea, Pilate, and two executioners. Pilate displays Jesus to the people of Jerusalem with the words ""Here is the man"" (Latin: Ecce homo). The people demanded his crucifixion; Pilate let them have their way and Jesus was crucified on Golgotha"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['Oil', 'paper', 'cardbord']</t>
+          <t>['Panel']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['Vertical']</t>
+          <t>['Horizontal']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Landscape']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['French']</t>
+          <t>['Dutch']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Rococo', 'Neoclassicism']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>a painting of a house with two trees</t>
+          <t>a painting of a group of people</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>valenciennes pierrehenri de</t>
+          <t>heemskerck maerten van</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Farm-buildings at the Villa Farnese: the Two Poplar Trees</t>
+          <t>Ecce Homo Triptych</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>그림은 주택과 두 개의 나무를 묘사하는 풍경画입니다.</t>
+          <t>그림은 예수의 십자가 처형과 관련된 일(인) 장면을 묘사한 예술 작품입니다. 
+1. 주제: 예수
+2. 스타일: 예술
+3. 분위기: 종교적</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>(127, 168, 187)</t>
+          <t>(22, 13, 19)</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1.123</v>
+        <v>2.223</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21712-landscap.jpg</t>
+          <t>10016-m_olives.jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Like their peasant scenes, the landscapes of the Le Nain brothers are careful observations of what they saw, rather  than derivations from other painters' works. An example is this painting, in which, although figures dominate the foreground, the main effort has been concentrated on the landscape. In the distance there is a large village with traces of its decaying fortifications, and a small Gothic chapel outside its walls. Such a sight may still be seen today, in the remoter parts of northern and eastern France. Again, the Le Nain brothers have told us what the people and the landscape of the time looked like</t>
+          <t>This unusual representation of Christ at Prayer on the Mount of Olives is a reduced version of a painting by No&amp;#235;l Coypel exhibited at the so-called Salon of 1704, an exhibition of paintings and pastels by members of the Académie Royale des Beaux-Arts, held in the Grande Galerie du Louvre.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Oil', 'copper']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['Vertical']</t>
+          <t>['Horizontal']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Landscape']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -755,96 +761,97 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>a painting of people in a village</t>
+          <t>the painting of the virgin and angels</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>le nain brothers</t>
+          <t>coypel noël</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Landscape with Peasants and a Chapel</t>
+          <t>Christ at Prayer on the Mount of Olives</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>이 그림은 거친 건축물과 작은 고딕 성당을 배경으로 한 정원에 사람들이 있는 풍경입니다.</t>
+          <t>다음은 그림에 대한 객관적이고 간결한 설명입니다.
+이 그림은 예수님의 기도하는 장면을 묘사한 그림이다. 그림의 주제는 예수님과 수많은 천사를 다루고 있으며, 예수님이 기도하는 장면을 표현하고 있다. 그림의 스타일은 18세기 프랑스 아카데미 Royale des Beaux-Arts에서 전시되었던 노엘 코이펄(Nichel Coypel)의 작품과 유사하다.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>(37, 30, 29)</t>
+          <t>(36, 30, 22)</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1.123</v>
+        <v>2.223</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>44247-interior.jpg</t>
+          <t>41294-10ladisl.jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>It was in the 15th century, that artists and architects began to make perspective studies for their own sake, inspired mainly by the book of Alberti on painting (1435). Alberti opened his book with an ingenious method for spatial construction based on central perspective. In the 16th century perspective study turned into perspective fantasies in the form of imaginary architecture, often highly elaborate, sophisticated and Mannerist. This interest in perspective and architectural ornament also caused the emergence of painters who began to specialize in this field. One of the inventors in this area was the Dutch painter Hans Vredeman de Vries. He influenced Dirk van Delen, whose follower was Pieter Jansz. Saenredam, one of the greatest master in this field.Emanuel de  Witte was also a great architectural painter. His interiors are always in use, they have a human atmosphere, in contrast with Saenredam's paintings where, if human beings occur, they are small and not at all eloquent, they are just there to measure the spatial dimensions of the building, not to bring it to life as a building that is used</t>
+          <t>Of the Hungarian kings St Ladislas is perhaps the one most often represented in post-medieval frescoes, altar paintings and statues. In the Middle Ages he was associated with the ideal of chivalry and the legends which gathered around him determined the manner of his representation. Thus the knightly armour and the battle-axe have become permanent attributes, in addition to the crown and the orb.The painting illustrated here, dating from the late sixteenth century, is only superficially linked with medieval portraits of St. Ladislas. The king is shown seated on a throne wearing an ample, richly embroidered cloak studded with pearls round the hem. In the foreground is a voluted and foiled shield with the national emblem, stylized in harmony with the throne. The background is designed to suggest the interior of a Renaissance palace. Through opening on either side of the wall behind the throne - draped with embroidered hangings - there is a view of landscape. A similar motif was often used to fill in the background in north Italian Madonna paintings of the fifteenth and sixteenth centuries. The monochrome landscape on the left is a topographic reference to one of St. Ladislas' most important church activities, the foundation of the Cathedral in Nagyvárad, while the one on the right shows his legendary defeat of the Cumanian abductor. This evocation of two popular episodes from the story of the king's life is intended partly to identify St. Ladislas as a rule of worldly power, and partly to indicate the ideal unity of the Christian king and the Christian knight.St Ladislas is shown as a historical personage, without a halo - a fact indicating that the painting was destined for a secular building. The episodes from the king's life or, to be mere accurate, from legends associated with his name, are treated as historical facts. The same approach characterized the series of prints of royalty and other notabilities which became so popular all Europe in the course of the sixteenth century. It may be assumed that such prints served as models for the painted portrait of St. Ladislas and the two related pictures of St. Stephen and St Emeric</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Oil', 'wood']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['Horizontal']</t>
+          <t>['Unknown']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Dutch']</t>
+          <t>['Hungarian']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>a painting of a church with people inside</t>
+          <t>a painting of a man sitting in a chair</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>witte emanuel de</t>
+          <t>unknown master hungarian</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Interior of a Church</t>
+          <t>Saint Ladislaus, King of Hungary</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>16세기 후반 유럽 예술가가 제작한 교회 내부를 다룬 인물화 작품. 공간감과 건축물의 세련된 장식이 특징이다.</t>
+          <t>이 그림은 세 명의 성인을 묘사한 중세 후의 frescoes, altar painting, statue와 함께 헝가리 왕국의 대표적인 인물인 Saint Ladislaus를 소재로 하며, 16세기 말에 제작된 것이다. 그림 안의 왕은 의복과 왕관, 휠을 달린 전단의 상징이 특징이다. 배경에는 르네상스의 궁전 내부를 표현했고, 성인들의 중요한 이야기가 담긴 두 개의 풍경이 각각 왼쪽과 오른쪽에 위치해 있다.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>(32, 19, 16)</t>
+          <t>(68, 49, 44)</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -858,27 +865,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05114-studio.jpg</t>
+          <t>44709-assumpt.jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Interiors and still-lifes are rarely found among the Macchiaioli artists, who generally preferred landscapes and figure paintings. This intimate glimpse into the artist's studio displays a carefree assembly of textiles, pottery, furniture, and a guitar placed casually on the sofa. The unusual perspective indicates that Borrani's attention is focused more on the effects of light and colour than on the depicted space</t>
+          <t>The profiles and the faces of the figures resemble those painted by Federico and Taddeo Zuccaro in the Frangipane Chapel of S. Marcello al Corso in Rome and those of the Farnese Palace in Caprarola.The painting was probably the property of a suppressed church in Cortona, afterwards placed in the chapter of the cathedral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Oil', 'panel']</t>
+          <t>['Oil', 'canvas']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['Horizontal']</t>
+          <t>['Unknown']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -888,34 +895,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Realism', 'Impressionism', 'Post-Impressionism', 'Art', 'Nouveau']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>a painting of a woman in a room</t>
+          <t>the ann of the virgin painting person the ann of the virgin art painting</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>borrani odoardo</t>
+          <t>zuccaro federico</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>The Studio</t>
+          <t>Assumption of the Virgin</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>이 작품 'The Studio'는 인테리어와 STILL-LIFE를 주제로 한 피아노 학교 예술가들 중에 드물게 나타나는 장르입니다. 
-여러 가지 소재들이 자유롭게 배치된 스튜디오의 모습을 담은 작품으로, 빛과 색상에 대한 효과를 강조한 독특한 관점이 특징입니다.
-이 그림은 한 여성의 모습과 함께, 주로 유럽의 바다와 풍경을 그린 예술가의 작업실을 포착했습니다.</t>
+          <t>세례자 요한과 성모 마리아가 있는 그림입니다. 표면과 얼굴은 유사한 양식의 페데리코, 타데오 자코로가 그린 작품과 비교할 수 있습니다.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>(137, 84, 71)</t>
+          <t>(35, 26, 31)</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -929,27 +934,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>42935-00view.jpg</t>
+          <t>00664-trinity.jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The picture shows a view toward the throne of the Hall of the College in the Doge's Palace. The wooden gilded ceiling frames a series of works by Veronese painted between 1578 and 1582. Veronese's commemorative painting of the Allegory of the Battle of Lepanto can be seen above the throne. The paintings on the walls, above the sculpted and gilded wooden wainscot, were executed by Tintoretto and his workshop between 1581 and 1584</t>
+          <t>"In the same period as the Madonna of the Harpies, according to the evidence of Vasari confirmed by stylistic links, Andrea painted another great panel, for the altar of a chapel in the Augustinian church of San Gallo. At the time of the siege of Florence in 1529 it was taken to safety inside the walls, to San Jacopo tra' Fossi, as were the two earlier paintings (Noli me tangere and the Annunciation).The altarpiece features Sts Augustine, Sebastian, Lawrence, Peter Martyr, Francis and Mary Magdalen placed before an indistinct backdrop of sky and clouds resplendent with a compact image of the Trinity.The subject of the picture is not rare in central Italian painting during this period of spiritual and religious debate. We need only mention the emblematic solutions provided by Raphael for analogous themes with the Disputation on the Sacrament in the Stanza della Segnatura in the Vatican, or the Ecstasy of St Cecilia, painted in 1514 for the church of San Giovanni in Monte at Bologna. Moreover, it was particularly congenial to the Augustinian clients of the monastery of San Gallo, who wished to present a theme dear to St Augustine, who is in fact depicted while leading a lively debate among other saints, in the presence of a stupendous Magdalene with the features of Lucrezia kneeling beside St Sebastian.We get the best possible idea of the admiration aroused by the picture from the enthusiastic words of Bocchi: ""In this church there are three wonderful pictures by Andrea del Sarto: but the one on the right, with saints disputing about the Trinity, is of all pictures in all places the most wonderful. In this picture we see what a lively colouring, a drawing of rare quality, a unique mastery, can do. Who ever saw clothing so lifelike, or the reliefs of surfaces so marked, the features of persons so vivid, and liveliness so conforming with the truth?. . . It does not seem as if these figures were made of paint, but of flesh; not clothed by artifice, but by nature. But if for a moment we put aside the colours, and the artifice, we enter into the spirit of that which is true beyond any doubt; and it seems that the persons are thinking, and adopting bodily attitudes, and talking, and are anything other than painted.""The only additions one can make to this admiring judgment from the past arise from the recuperation of the exceptional colours of the Disputation, obtained by a restoration that has only just been completed. Apart from certain irreversible alterations, such as the oxidization of the verdigris spread by the painter on the mantle of St Sebastian in order to emphasize the effect of shadow in the folds, and apart from missing parts and abrasions caused by previous cleanings, the removal - or the careful and extremely prudent reduction - of the layers of dirt and coloured varnishes deposited over the surface in the course of centuries has enabled us to rediscover warm, intense and most refined harmonies of colour set against the deep blue-green space of a stormy sky. The ""palette"" now revealed to us appears very similar indeed to that of the Madonna of the Harpies, and confirms the theory that these two masterpieces date from the same time"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Oil', 'wood']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>['Horizontal']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -964,27 +969,27 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>the ceiling is painted gold</t>
+          <t>the painting of the stations of the cross</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>veronese paolo</t>
+          <t>andrea del sarto</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>View of the Sala del Collegio</t>
+          <t>Disputation on the Trinity</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>도우브 Palace의 College Hall 내 Throne 방은 Veronese가 그린 벽화와 Tintoretto가 그린 천장으로 이루어진 곳이다.</t>
+          <t>삼위일체에 대한 논쟁. 화려하고 깊이있는 배경과 구름 위에 삼위일체가 있는 안식처에서 성인들이 활발한 토론을 하고 있다.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>(94, 64, 51)</t>
+          <t>(72, 52, 43)</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -998,12 +1003,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11640-02view.jpg</t>
+          <t>42120-04cancel.jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The picture shows the general view toward the interior walls of the Cappella dei Santi Fondatori in the Abbey of Santa Maria, Grottaferrata.The Exarchic Monastery of Santa Maria in Grottaferrata, also known as the Greek Abbey of Saint Nilus, was founded in 1004 by a group of monks from Calabria led by St Nilus of Rossano, a charismatic leader and a very important figure of his time. When St Nilus, the monks' spiritual father, died shortly after founding the Abbey, St Bartholomew the Younger, his favourite disciple and cofounder of the monastery, assumed their leadership. Today, Grottaferrata is the last of the many Byzantine-Greek monasteries that dotted Sicily, southern Italy and Rome itself in the Middle Ages. It is also unique in that, having been founded fifty years before the Great Schism that divided Catholics and Orthodox, it remained in communion with the Church of Rome while preserving the Byzantine rite and monastic tradition of its founders.Preceding the modernization in the style of the Roman Baroque, a chapel, connected to the church and consecrated by the abbey's two founders, had been remodeled between 1608 and 1610. The redesign was funded by Cardinal Odoardo Farnese who commissioned Domenichino to decorate the chapel. The commission was completed in 1612.Domenichino was responsible for the design of painted architecture which structures the simple space of the chapel primarily by painterly means. The elegant row of columns between the chapel and the chancel creates a caesura in terms of subject matter. The paintings in the spandrels flanking the choir arch depict the Annunciation. Between the columns one can see into the chancel, the centre of which is topped by a small oval cupola. The four evangelists are depicted in the cupola pendentives, and above them in oval panels appear three early Christian female martyrs (Sts Agnes, Cecilia, and Francesca Romana). In the cupola's centre panel God the Father appears enthroned on clouds and flanked by angels.By contrast to the scenes related to the Salvation, the narrative paintings on the long walls of the main space are devoted to the two founders of the abbey; because of their size and viewing angles they are the chief attractions of the ensemble. The long walls are divided into two stories, each divided by a door into two rectangular spaces of different width. The events from the lives of the two founders are presented in a total of seven scenes. The scenes selected from various sources meant to illustrate the joint activities of the two founding saints. Three scenes are in the chancel, and four on the long walls of the main room.In the painted niches at the attic level stand eight monumental figures wearing Byzantine vestments and identified by Greek inscriptions. They are bare-headed and wear halos. Closest to the chancel are Sts Basil, John Chrysostom, and Gregory of Nazianzus, venerated as hierarchs in Eastern Church. Secondary to them are the doctors of the church Cyril of Alexandria and John of Damascus, as well as the church fathers Athanasius the Great and Gregory of Nyssa. The eighth figure is St Nicolas of Myra</t>
+          <t>Vasari had a well disciplined army of assistants, and with their aid he was able to cover numerous Florentine and Roman walls and ceilings with frescoes and oil paintings. While these are often unreal and pompous, they seldom lack decorative effect or historical interest. Enormous altarpieces from his studio line the side aisles of Florentine churches, vast battle scenes and smaller decorative works fill the halls and smaller chambers of the Palazzo Vecchio. His 'Paul III Farnese Directing the Continuance of St Peter's' forms part of the decoration of the Cancellaria in Rome, a building begun as a cardinal's palace and converted in the Cinquecento into offices for the pontifical government. Vasari and his pupils painted the frescoes lining the great hall in one hundred working days</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1018,7 +1023,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1028,34 +1033,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>a large room with paintings on the walls</t>
+          <t>a painting of a group of people in a roman temple</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>domenichino</t>
+          <t>vasari giorgio</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>General view toward the interior walls</t>
+          <t>Paul III Farnese Directing the Continuance of St Peter's</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>그림은 이탈리아의 아바디(Abbey of Santa Maria) 내 Capella dei Santi Fondatori(성기초자들 часов당)의 안뜰 벽면 전경입니다. 그림에 나온 장면에는 성 니콜라스, 바르톨로메오(St Bartholomew the Younger), 닐로스 교구장(St Nilus of Rossano) 등과 관련된 묘사들이 있습니다. 
-그림의 스타일은 로마 바로크 양식에 속하며, 그림의 전반적인 분위기는 성경적이며 미학적으로 우수한 예술 작품입니다.
-이미지는 1610년대 이전 시기의 아바디 내 Capella dei Santi Fondatori 안뜰 벽면 전경을 표현한 것으로 보입니다.</t>
+          <t>교황청 건물 벽화. 대형 장식 작품으로, 로마 카르다인 궁전에서 시작되어 16세기 말에 교황 정부의 사무실로 개조된 건물의 큰 홀을 장식하는 벽화를 담당했다.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>(82, 71, 65)</t>
+          <t>(104, 78, 61)</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -1069,62 +1072,62 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>42726-artist.jpg</t>
+          <t>07712-4birth1.jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The picture shows the artist's as a crowded and social space, where work was more likely to be interrupted by loungers and visitors, fencing matches and dog fights, than by melancholy soul-searching. Yet in fact this is an image of frustration. The fall of Napoleon had left the once-fashionable Vernet bereft of subjects and patrons, and his political views had excluded him from the Paris Salon of 1821. He had been obliged to show in this very studio, including his picture of it as an ironic symbol of the impasse to which he had been brought</t>
+          <t>Two panels of virtually the same size, depicting scenes constructed on a precisely mirror-image perspective grid, are in the centre of sustained scholarly debate which extends to both the subjects, the function, and the authorship. They depict ostensibly religious subjects with a plethora of detail taken, on the one hand, from contemporary life and inspired, on the other, by humanist-antiquarian interests. One of the panels (in the Metropolitan Museum of Art, New York) represents the Birth of the Virgin, the other (in the Museum of Fine Arts, Boston) probably shows the Presentation of the Virgin in the Temple.These two highly original pictures can be identified with an altarpiece painted by Fra Carnevale for a lay fraternity of flagellants in the hospital church of Santa Maria della Bella in Urbino. In the seventeenth century the altarpiece was confiscated by Cardinal Antonio Barberini, and in the 1930s they were sold from the Barberini collection to the museums in New York and Boston</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Tempera', 'oil', 'wood']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['Vertical']</t>
+          <t>['Horizontal']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['French']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Romanticism', 'Realism']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>a painting class in a workshop</t>
+          <t>the wedding of the virgin and the virgin, by raphael van de velde</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>vernet horace</t>
+          <t>carnevale fra</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The Artist's Studio</t>
+          <t>The Birth of the Virgin</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>아티스트의 스튜디오라는 작품은 아티스트의 작업 공간을 표현한 내부 장면입니다. 작품의 주제는 그림 수업이 이루어지는 작업실입니다. 작품의 스타일은 풍경화와 비교할 때 더 집중된 에너지를 지닙니다. 전반적인 분위기는 혼잡하고 사회적이지만, 이는 사실 좌절감을 표현한 이미지라고 합니다.</t>
+          <t>이 그림은 두 개의_Panel_으로 구성되어 있으며, 하나는 성모 마리아의 탄생, 다른 하나는 성모 마리아의 예배를 묘사합니다.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>(29, 25, 31)</t>
+          <t>(167, 151, 143)</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1138,17 +1141,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20190-nieuwe2.jpg</t>
+          <t>04095-predell3.jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>In his paintings Houckgeest chose a perspective construction with two vanishing points: one on the left-hand edge of the painting and one on the right in the picture. After he introduced his own approach to representing actual church interiors in his panel now in Hamburg, he explored the spaces of the Nieuwe Kerk and Oude Kerk for similar views. In all his paintings of Delft churches a colonnade is aligned diagonally with the picture plane and the architecture recedes to both sides. The effect is naturalistic and to some extent illusionistic. He employed this so-called diagonal perspective in nearly all his works.Houckgeest made various 'portraits' of the interior of the New Church in Delft, all of which include depictions of the tomb of Willem I of Orange, known as William the Silent. In this painting the impressive monument stands modestly amidst a forest of pillars, the surroundings being accentuated by the bright light more than the tomb.The painting is signed in monogram and dated lower right, on the nearest column base: GH 16(51)</t>
+          <t>This panel was probably part of a predella of a larger altarpiece</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['Oil', 'panel']</t>
+          <t>['Tempera', 'panel']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1158,42 +1161,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Dutch']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>a painting of a church</t>
+          <t>a painting of a man standing on a cross</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>houckgeest gerard</t>
+          <t>benvenuto di giovanni</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Ambulatory of the New Church in Delft with the Tomb of William the Silent</t>
+          <t>The Resurrection</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>델프트의 신교회의 외상과 위클라임1세의 무덤이 나와있는 그림입니다. 그림은 한쪽에서 다른 쪽으로 열리는 넓고 고딕 양식의 교회 내부를 묘사하고 있습니다. 그림은 두개의 관찰점을 보유한 평면적 구조로, 왼쪽과 오른쪽 그림의 가장자리에서 관찰할 수 있습니다. 이 그림에서는 교회의 모양이 두 방향으로 물러가고 있으며, 바닥은 세 개의 행에 나눠진다.</t>
+          <t>수도사와 함께 십자가에 선 남자.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>(169, 129, 83)</t>
+          <t>(173, 154, 106)</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1207,62 +1210,63 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>38560-barninte.jpg</t>
+          <t>31073-3anton03.jpg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The painting represents a barn interior with a peasant woman pouring milk into a jug and a peasant man standing nearby, with cattle in the background, an old woman peeking through a door and an owl sitting on a stick near the door</t>
+          <t>The central part of the composition, the Madonna and Child with Saints Anthony, John the Baptist, Francis and Elizabeth, reveals in its unusual damask-like background the artist's acquaintance with a trend of contemporary Spanish painting, which Piero would have had the opportunity to see in Rome</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Panel']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['Vertical']</t>
+          <t>['Horizontal']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Flemish']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>a painting of a man milking a cow</t>
+          <t>madonna and child, by fraschia divino</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>teniers david the younger</t>
+          <t>piero della francesca</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A Barn Interior</t>
+          <t>Polyptych of St Anthony: Madonna and Child</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>바닌 내부를 그린 그림입니다. 오래된 여성과 농민이 있는 농장 내부에서 농사짓고있는 여성과 남성이 담겨 있습니다.</t>
+          <t>다음은 그림에 대한 객관적이고 간결한 설명입니다.
+"성 안토니오와 관련된 대형 그림 중 하나. 화려하고 비잔틴 스타일의 배경과 함께 성모 마리아와 아이, 성 인본, 요한 복음가, 세르지오가 묘사되어 있습니다."</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>(34, 28, 16)</t>
+          <t>(196, 142, 82)</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -1276,17 +1280,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>44253-nieuwe3.jpg</t>
+          <t>29619-holyfami.jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>De Witte began his career as a figure painter but later he decided to specialise in church interiors. However, even in this genre he continued to exhibit a remarkable interest in the human figure. Here he painted men, women, and children in the vicinity of the impressive tomb of William the Silent. Just as in other church interior paintings by Houckgeest and Saenredam, dogs run around the church. The painters were hereby drawing attention to an everyday situation that sometimes got out of hand</t>
+          <t>This painting is from the period when the artist was employed by the Duke Alfonso I d'Este in Ferrara, and it shows the influence of contemporary Ferrarese painters</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Oil', 'panel']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1296,42 +1300,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Dutch']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>a painting of a church with people in the background</t>
+          <t>a painting of the virgin and child</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>witte emanuel de</t>
+          <t>niccol pisano</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>View of the Tomb of William the Silent in the New Church in Delft</t>
+          <t>The Holy Family</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>다른 교회 내부 그림과 마찬가지로, 윌리엄 Silent 공작의 무덤 주변에 있는 사람들의 장면이 담겨있다.</t>
+          <t>이 그림은 성모 마리아와 아이Jesus를 그린 종교화입니다.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>(100, 76, 59)</t>
+          <t>(6, 5, 4)</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1345,62 +1349,62 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13125-interior.jpg</t>
+          <t>35009-cremona1.jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The woman sweeping seen from behind is very similar to that in Elinga's other interior in The Hermitage, St Petersburg</t>
+          <t>The early decades of the sixteenth century in Cremona were some of the most turbulent in its political history. In these years of constantly changing foreign rulers, the local leaders of Cremona pursued an elaborate project of decoration with remarkable consistency. From 1506 to 1522 the community had the chancel and nave of the twelve-century cathedral frescoed. By continuing the decoration through all the changes in government, the community represented its own identity; it was an act of local self-assertion.The decoration was begun in the semi-dome vault of the apse in 1506. Boccaccio Boccaccino depicted, following a time-honoured scheme, the Epiphany of God in the Last Days (Christ in Majesty) as the principal and culminating image within the church space. Later, in 1514 Boccaccino received the commission to begin a fresco cycle of the life of Mary and Christ on the walls of the nave. They begin on the left wall, running from the façade to the apse and then on the right wall from the apse back to the façade. The left wall is dedicated to Mary and Christ's childhood; the right to the Passion.Boccaccino painted the scenes above the first four arches of the nave, and Giovan Francesco Bembo had been active above the fifth arch. He was not awarded another commission, the fresco cycle was continued by the Cremonese artist Altobello Melone. He painted the scenes above the next arch, and continued the cycle on the right wall, where he painted five scenes of the Passion above the three arches next to the apse.Romanino was commissioned for the next four scenes of the Passion on the right wall; he painted in 1519 the scenes Christ before Pilate, Flagellation of Christ, Christ Crowned with Thorns, and Ecce Homo. For these scenes Romanino borrowed motifs from Dürer' engravings. The open brushwork, the atmospheric space, the architecture lined with sculpture, and the profound psychological characterization of the faces are owed to Romanino's study of Titian's frescoes in Padua.View all images of the fresco decoration in Cremona Cathedral by various artists</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Fresco']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['Vertical']</t>
+          <t>['Unknown']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Dutch']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>a painting of a woman reading a book in an old room</t>
+          <t>a painting of people in a room</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>elinga pieter janssens</t>
+          <t>romanino girolamo</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Interior with Seated Figures</t>
+          <t>Christ before Pilate, and Flagellation of Christ</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>content='"Interior with Seated Figures"는 고풍스러운 방에서 책을 읽고 있는 여성을 그린 작품으로, 엘링가의 독특한 실내 스타일을 잘 보여줍니다.' additional_kwargs={} response_metadata={'finish_reason': 'stop', 'model_name': 'gpt-4o-mini-2024-07-18', 'system_fingerprint': 'fp_f59a81427f'} id='run-3ef2c685-9b65-41ed-b6c7-08324ab13ddd-0'</t>
+          <t>세상과 인간을 대하는 성도(Christ)의 모습이 묘사된 그림입니다. 회화는 고딕風의 세련된 스타일로 진행되어 있습니다.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>(42, 37, 34)</t>
+          <t>(42, 28, 27)</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1414,17 +1418,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04723-interio1.jpg</t>
+          <t>33941-cecilia.jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The painting is signed lower left: D.BLIECK - 1670</t>
+          <t>St Cecilia is a Christian saint and virgin martyr believed to have lived in the 2nd or 3rd century. She is the patron saint of music, her attribute being the organ. However, she is often represented with other musical instruments.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['Oil', 'panel']</t>
+          <t>['Oil', 'canvas']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1434,12 +1438,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Dutch']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1449,27 +1453,27 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>a painting of a church</t>
+          <t>a painting of a woman with a violin</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>blieck daniel de</t>
+          <t>reni guido</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Interior of a Church</t>
+          <t>St Cecilia</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1670년에 그려진 교회의 내부를 묘사한 그림입니다. 건물과 좌석이 세련된 장식으로 조성되어 있습니다.</t>
+          <t>그림은 한 여인의 모습이 묘사되어 있으며, 여성은 바이올린을 연주하는 가운데에 있습니다.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>(136, 123, 87)</t>
+          <t>(58, 42, 35)</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -1483,17 +1487,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>43254-tavern.jpg</t>
+          <t>10511-coronat.jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>This painting depicts a tavern interior with men and women eating and drinking whilst children and animals play and a man begs alms. It belongs to a series of small panels of similar subjects painted by Vinckboons around 1606-10, which are generally interpreted as depicting Spanish soldiers feasting and oppressing Dutch peasants</t>
+          <t>"The panel, from the church of San Francesco, Fabriano, is signed and dated in Latin on the plaque below: ""CAROLVS CRIVELLVS VENETUS MILES PINXIT MCCCCLXXXXIII."" The represented figures are Sts George, John the Baptist, Catherine of Alexandria, Venantius, Francis, Sebastian, and angel musicians.A document ordering the work on February 9, 1493 has been preserved. The altarpiece included the Piet&amp;#224; in the lunette, and a predella that is now divided among the Castel Sant'Angelo in Rome, the Musée Jacquemart-André, Paris, and the Christian Museum at Esztergom"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['Oil', 'panel']</t>
+          <t>['Tempera', 'panel']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1503,42 +1507,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Flemish']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>a painting of a family gathering in a tavern</t>
+          <t>the last judgement of christ by sandro bota</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>vinckboons david</t>
+          <t>crivelli carlo</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Tavern Interior</t>
+          <t>Coronation of the Virgin</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>인테리어 그림. TavernInterior는 사람들이 식사와 음료를 즐기며 아이들과 동물이 놀고 사람들의 기도에 응답하는 장면이다. 스타일은 1606-10년의 세리프로 간주된다.</t>
+          <t>'마리아 왕관식'에 관한 그림으로, 미켈란젤로의 작품과 같은 인상주의 양식을 특징으로 합니다.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>(50, 39, 38)</t>
+          <t>(72, 38, 27)</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1552,17 +1556,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>44265-protestc.jpg</t>
+          <t>31306-nativity.jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Emanuel de Witte concentrated on church interiors, but seems to have been more interested in the artistic effect. He was not concerned whether the interior was recognizable, and also abandoned a focused perspective, instead creating an impression of depth with the effects of light and shade.The interior shown in the picture contains motifs from the Oude Kerk in Amsterdam</t>
+          <t>The iconography of this small panel, in which the Annunciation to the Shepherds, the Nativity, and the Bathing of the Infant Christ are all shown within the same picture space, finds its source in Byzantine art</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['Oil', 'panel']</t>
+          <t>['Tempera', 'panel']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1572,42 +1576,43 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Dutch']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Medieval', 'Period']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>a painting of a church with people sitting in the pew</t>
+          <t>the nat scene with the virgin and the virgin</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>witte emanuel de</t>
+          <t>pietro da rimini</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Interior of a Protestant Gothic Church</t>
+          <t>The Nativity</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>교회内部 그림입니다. 오래된 교회 건물과 주변 사람들의 모습이 담겨져 있습니다. 빛과 그늘 효과로 깊이가 표현되어 있습니다.</t>
+          <t>기본적인 형식과 스타일에 의한 설명입니다. 
+이 그림은 성모 마리아와 신생 기독교의 배가 중심으로 묘사된 경성 nativity 작품입니다.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>(24, 17, 20)</t>
+          <t>(100, 78, 64)</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1621,27 +1626,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>43190-roomange.jpg</t>
+          <t>38909-01martyr.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Room of the Angels in the Casa Buonarroti was decorated by Jacopo Vignali and Michelangelo Cinganelli in 1623. The frescoes represent the saints and beatified of the city and the Florence area. The altar on the left has valuable intarsia work made to a design by Pietro da Cortona</t>
+          <t>To the testament of Andrea Stazio, a Venetian nobleman who died in 1722, we owe a cycle of paintings of great importance in the history of Venetian art. The will provided that twelve canvases should be painted for the church of San Stae (Venetian for St Eustace). All similar in size, they depict episodes in the lives of the Apostles and their martyrdom. The commission was given to twelve different Venetian painter, ranging from the aged Nicol&amp;#242; Bambini, then seventy-one, through to Giambattista Tiepolo, almost at the start of his career.All the paintings were completed within a few months, in 1722 and early 1723. The artists were the following in alphabetic order: Antonio Balestra, Nicol&amp;#242; Bambini, Gregorio Lazzarini, Silvestro Manaigo, Giambattista Mariotti, Giovanni Antonio Pellegrini, Giambattista Piazzetta, Giambattista Pittoni, Sebastiano Ricci, Giambattista Tiepolo, Angelo Trevisano and Pietro Uberti. They vied with each other to transform the church into a remarkable showcase of currents and developments in eighteenth-century Venetian art.Tiepolo's painting is part of the cycle of the Apostles which as a 'collective exhibition' fortunately remained intact in the choir of the Baroque church San Stae, giving an outline of Venetian painting of the period. The subject of the painting is the martyrdom of St Bartholomew, whose tormentors are on the point of flaying him alive. The awfulness of the scene is matched by the extremely powerful composition which places the writhing body of the saint along the diagonal between the two henchmen. The eerie contrast between light and shade makes the scene all the more vivid. The expressive gesture with which the despairing saint stretches his arm heavenward transforms the picture into a wonderful depiction of divine grace, the existence of which is already signaled by the bright light emanating from above.This painting was inspired by Piazzetta and is placed opposite his St James in San Stae, and it is almost its mirror image. As in the other work, the structure dynamically offsets conflicting forces, rendered by means of a chiastic arrangement of diagonals and clear contrasts of light and shade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['Fresco']</t>
+          <t>['Oil', 'canvas']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['Unknown']</t>
+          <t>['Horizontal']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1651,32 +1656,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Rococo']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>a room with paintings</t>
+          <t>the martyr of saint paul by nicolas de bos</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>vignali jacopo</t>
+          <t>tiepolo giovanni battista</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>View of the Room of the Angels</t>
+          <t>The Martyrdom of St. Bartholomew</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1672년경에 그려진 Casa Buonarroti의 천인방을 연상케하는 frescoes와 valuable intarsia 작품이 담긴 방.</t>
+          <t>성 바르톨로뮤의殉教(군중의 난투)과 성 바르톨로뮤의 죽음을 묘사한 그림입니다.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>(38, 29, 30)</t>
+          <t>(18, 13, 14)</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1690,63 +1695,62 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04641-kitchen.jpg</t>
+          <t>16664-virgin_c.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>This signed and dated painting depicts a kitchen interior with a woman cooking and a boy blowing flames. The space behind the main figures recedes into a high ceilinged, open plan interior. The low viewpoint of this picture is unusual</t>
+          <t>The Child, seated on a red drapery, is entirely nude. This depiction was introduced by Sassetta in his Madonna delle Nevi. The gesture of his right hand, tenderly caressing the face of his mother, corresponds to a long iconographic tradition of Tuscan painting, a prototype being Duccio's Madonna Crevole</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['Oil', 'canvas']</t>
+          <t>['Tempera', 'wood']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['Vertical']</t>
+          <t>['Horizontal']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['Interior']</t>
+          <t>['Religious']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Dutch']</t>
+          <t>['Italian']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Baroque']</t>
+          <t>['Renaissance']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>a painting of a woman in a workshop</t>
+          <t>a painting of a woman holding a baby</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>bisschop cornelis</t>
+          <t>giovanni di paolo</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Kitchen Interior</t>
+          <t>Virgin and Child</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>다음은 그림에 대한 객관적이고 간결한 설명입니다.
-이 그림은 인테리어를 주제로 한 그림으로, 주인공은 여성이 요리하는 кух인 실내와 남자가 불을 피우는 장면이 담겨 있습니다. 그림의 스타일은 고정된 시점에서 보는 것으로, 일반적으로 높은 점에서 보는 방식보다 훨씬 낮게 보는 형태로 조감을 표현했습니다.</t>
+          <t>성모와 아이를 묘사한 그림입니다. 성모는 적색 드레스에 앉아 있으며, 아이는 정면으로 바라보며 손을 뻗어 어머니의 얼굴을 조아리고 있습니다.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>(29, 26, 30)</t>
+          <t>(178, 121, 85)</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1756,147 +1760,6 @@
         <v>1</v>
       </c>
       <c r="O19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>06783-tavern1.jpg</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Most of the artist's works have brown and ocher tones which represent taverns with smokers, playing cards, and villagers drinking. These painting remind the viewer of the paintings by Adriaen Brouwer in his first period. There are also several similarities between the tavern scenes done by Adriaen van Ostade during 1635 and 1638</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>['Oil', 'panel']</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>['Vertical']</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['Interior']</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>['Dutch']</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['Baroque']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>a painting of a blacksmith in a barn</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>buesem jan jansz</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Tavern Interior with Peasants</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>이 그림은 '태번 내부와 농민'이라는 제목을 가지고 있습니다. 이 그림의 대부분의 색상은 갈색과 오치르 톤으로 구성되어 있으며, 담배를 피우는 사람들과 카드를 뒤지는 사람들이 있는 태반과 주민들이 주류를 마시는 장면을 표현합니다. 
-이러한 그림은 아드리아안 브로워가 그의 첫 번째 시기 동안 제작한 작품들을 연상시키며, 1635년부터 1638년에 제작된 아드리아안 반 오스다德의 여러 태반 분위기를 반영하는 것과 유사합니다.</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>(34, 24, 14)</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>29464-int_cath.jpg</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>The painting is signed and dated on the right column</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>['Oil', 'canvas']</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['Vertical']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['Interior']</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>['Flemish']</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['Baroque']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>interior of the church of the person</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>neeffs peeter the younger</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Interior of a Cathedral</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>이 그림은 한 교회의 내부를 묘사한 작품입니다. 
-교회는 한 개인의 교회라는 점에 주목할 수 있습니다. 그림의 주요 소재는 교회 itself 인 것 같습니다. 
-전반적으로, 이 그림은 고딕 건축물의 세련된 스타일을 특징으로 합니다. 또한, 그림은 밝고 화려한 색상을 사용하여 한 종교적 atmospere를 조성합니다.</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>(44, 43, 38)</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
